--- a/dat/validation/deps_to_validate_ana.xlsx
+++ b/dat/validation/deps_to_validate_ana.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anast\Documents\EDU\PROJECT -learning dependencies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d9a03ae41913f59/Документы/GitHub/learning-dependencies/dat/validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F63B61-32B5-4E0F-9055-F92530FB06C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{94F63B61-32B5-4E0F-9055-F92530FB06C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62862C77-F0B9-4BCB-8A93-6EE640C5C18A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1124,8 +1124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A278" workbookViewId="0">
-      <selection activeCell="C290" sqref="C290"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1171,7 +1171,7 @@
         <v>5</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
